--- a/config_p3388/tv_generation_catalog.xlsx
+++ b/config_p3388/tv_generation_catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meas\p3388_general_rfi_tv\config_p3388\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08561819-695E-495B-B2E7-4E464F45C738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B35297E-9452-49BB-AE54-3671A26461A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1875" windowWidth="17085" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -89,7 +89,25 @@
     <t>006</t>
   </si>
   <si>
-    <t>./config_p3388/extreme_rfi.xlsm</t>
+    <t>./config_p3388/extreme_rfi.xlsx</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
   </si>
 </sst>
 </file>
@@ -418,10 +436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -469,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,13 +498,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,13 +512,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,13 +526,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,12 +540,96 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
     </row>
